--- a/excel/Analysis_yearly_default.xlsx
+++ b/excel/Analysis_yearly_default.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="91">
   <si>
     <t>年度</t>
   </si>
@@ -46,217 +46,247 @@
     <t>年内最大亏损额(万元)</t>
   </si>
   <si>
-    <t>0.0957</t>
-  </si>
-  <si>
-    <t>0.0702</t>
-  </si>
-  <si>
-    <t>0.0406</t>
-  </si>
-  <si>
-    <t>0.1356</t>
-  </si>
-  <si>
-    <t>0.1020</t>
-  </si>
-  <si>
-    <t>0.0689</t>
-  </si>
-  <si>
-    <t>0.0208</t>
-  </si>
-  <si>
-    <t>0.0694</t>
-  </si>
-  <si>
-    <t>0.1229</t>
-  </si>
-  <si>
-    <t>0.0748</t>
-  </si>
-  <si>
-    <t>0.0414</t>
-  </si>
-  <si>
-    <t>0.0261</t>
+    <t>0.0812</t>
+  </si>
+  <si>
+    <t>0.0017</t>
+  </si>
+  <si>
+    <t>0.0093</t>
+  </si>
+  <si>
+    <t>0.0571</t>
+  </si>
+  <si>
+    <t>0.0741</t>
+  </si>
+  <si>
+    <t>0.0552</t>
+  </si>
+  <si>
+    <t>0.0470</t>
+  </si>
+  <si>
+    <t>0.0072</t>
+  </si>
+  <si>
+    <t>0.0301</t>
+  </si>
+  <si>
+    <t>0.0920</t>
+  </si>
+  <si>
+    <t>0.0178</t>
+  </si>
+  <si>
+    <t>0.0422</t>
   </si>
   <si>
     <t>0.0296</t>
   </si>
   <si>
-    <t>0.0356</t>
-  </si>
-  <si>
-    <t>0.0589</t>
-  </si>
-  <si>
-    <t>0.0286</t>
-  </si>
-  <si>
-    <t>0.0311</t>
-  </si>
-  <si>
-    <t>0.0188</t>
-  </si>
-  <si>
-    <t>0.0327</t>
-  </si>
-  <si>
-    <t>0.0328</t>
-  </si>
-  <si>
-    <t>-0.0228</t>
-  </si>
-  <si>
-    <t>-0.0127</t>
-  </si>
-  <si>
-    <t>-0.0238</t>
-  </si>
-  <si>
-    <t>-0.0173</t>
-  </si>
-  <si>
-    <t>-0.0680</t>
-  </si>
-  <si>
-    <t>-0.0121</t>
-  </si>
-  <si>
-    <t>-0.0231</t>
-  </si>
-  <si>
-    <t>-0.0142</t>
-  </si>
-  <si>
-    <t>-0.0187</t>
-  </si>
-  <si>
-    <t>-0.0227</t>
-  </si>
-  <si>
-    <t>2.3154</t>
-  </si>
-  <si>
-    <t>2.6931</t>
-  </si>
-  <si>
-    <t>1.3711</t>
-  </si>
-  <si>
-    <t>3.8099</t>
-  </si>
-  <si>
-    <t>1.7312</t>
-  </si>
-  <si>
-    <t>2.4112</t>
-  </si>
-  <si>
-    <t>0.6688</t>
-  </si>
-  <si>
-    <t>3.6808</t>
-  </si>
-  <si>
-    <t>3.7563</t>
-  </si>
-  <si>
-    <t>2.2822</t>
-  </si>
-  <si>
-    <t>4.1930</t>
-  </si>
-  <si>
-    <t>5.5143</t>
-  </si>
-  <si>
-    <t>1.7073</t>
-  </si>
-  <si>
-    <t>7.8271</t>
-  </si>
-  <si>
-    <t>1.4986</t>
-  </si>
-  <si>
-    <t>5.6724</t>
-  </si>
-  <si>
-    <t>0.9013</t>
-  </si>
-  <si>
-    <t>4.8984</t>
-  </si>
-  <si>
-    <t>6.5727</t>
-  </si>
-  <si>
-    <t>3.3022</t>
+    <t>0.0168</t>
+  </si>
+  <si>
+    <t>0.0238</t>
+  </si>
+  <si>
+    <t>0.0195</t>
+  </si>
+  <si>
+    <t>0.0251</t>
+  </si>
+  <si>
+    <t>0.0221</t>
+  </si>
+  <si>
+    <t>0.0229</t>
+  </si>
+  <si>
+    <t>0.0136</t>
+  </si>
+  <si>
+    <t>0.0218</t>
+  </si>
+  <si>
+    <t>0.0180</t>
+  </si>
+  <si>
+    <t>-0.0404</t>
+  </si>
+  <si>
+    <t>-0.0394</t>
+  </si>
+  <si>
+    <t>-0.0191</t>
+  </si>
+  <si>
+    <t>-0.0141</t>
+  </si>
+  <si>
+    <t>-0.0126</t>
+  </si>
+  <si>
+    <t>-0.0215</t>
+  </si>
+  <si>
+    <t>-0.0229</t>
+  </si>
+  <si>
+    <t>-0.0137</t>
+  </si>
+  <si>
+    <t>-0.0067</t>
+  </si>
+  <si>
+    <t>-0.0149</t>
+  </si>
+  <si>
+    <t>1.9245</t>
+  </si>
+  <si>
+    <t>0.0562</t>
+  </si>
+  <si>
+    <t>0.5538</t>
+  </si>
+  <si>
+    <t>2.3943</t>
+  </si>
+  <si>
+    <t>3.8071</t>
+  </si>
+  <si>
+    <t>2.2028</t>
+  </si>
+  <si>
+    <t>2.1242</t>
+  </si>
+  <si>
+    <t>0.3139</t>
+  </si>
+  <si>
+    <t>2.2077</t>
+  </si>
+  <si>
+    <t>4.2276</t>
+  </si>
+  <si>
+    <t>0.9891</t>
+  </si>
+  <si>
+    <t>2.0071</t>
+  </si>
+  <si>
+    <t>0.0423</t>
+  </si>
+  <si>
+    <t>0.4872</t>
+  </si>
+  <si>
+    <t>4.0530</t>
+  </si>
+  <si>
+    <t>5.8694</t>
+  </si>
+  <si>
+    <t>2.5657</t>
+  </si>
+  <si>
+    <t>3.7408</t>
+  </si>
+  <si>
+    <t>0.3143</t>
+  </si>
+  <si>
+    <t>2.1963</t>
+  </si>
+  <si>
+    <t>13.7350</t>
+  </si>
+  <si>
+    <t>1.1885</t>
   </si>
   <si>
     <t>NaN</t>
   </si>
   <si>
-    <t>-0.016182</t>
-  </si>
-  <si>
-    <t>-0.030641</t>
-  </si>
-  <si>
-    <t>-0.036215</t>
-  </si>
-  <si>
-    <t>-0.035669</t>
-  </si>
-  <si>
-    <t>1235929.98</t>
-  </si>
-  <si>
-    <t>652727.80</t>
-  </si>
-  <si>
-    <t>552255.10</t>
-  </si>
-  <si>
-    <t>560715.89</t>
-  </si>
-  <si>
-    <t>-0.0206</t>
+    <t>-0.036362</t>
+  </si>
+  <si>
+    <t>-0.035028</t>
+  </si>
+  <si>
+    <t>-0.032710</t>
+  </si>
+  <si>
+    <t>-0.030065</t>
+  </si>
+  <si>
+    <t>-0.016768</t>
+  </si>
+  <si>
+    <t>-0.014367</t>
+  </si>
+  <si>
+    <t>550018.49</t>
+  </si>
+  <si>
+    <t>570971.81</t>
+  </si>
+  <si>
+    <t>611427.30</t>
+  </si>
+  <si>
+    <t>665215.11</t>
+  </si>
+  <si>
+    <t>1192752.02</t>
+  </si>
+  <si>
+    <t>1392072.05</t>
+  </si>
+  <si>
+    <t>-0.0029</t>
+  </si>
+  <si>
+    <t>-0.0261</t>
+  </si>
+  <si>
+    <t>-0.0169</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>-0.0066</t>
-  </si>
-  <si>
-    <t>-0.0504</t>
-  </si>
-  <si>
-    <t>-0.0077</t>
-  </si>
-  <si>
-    <t>-0.0034</t>
+    <t>-0.0023</t>
+  </si>
+  <si>
+    <t>-0.0174</t>
+  </si>
+  <si>
+    <t>-0.0040</t>
+  </si>
+  <si>
+    <t>-0.0105</t>
   </si>
   <si>
     <t>nan</t>
   </si>
   <si>
-    <t>-62234.09</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>-4267.99</t>
-  </si>
-  <si>
-    <t>-1881.52</t>
-  </si>
-  <si>
-    <t>-3692.21</t>
+    <t>-1414.16</t>
+  </si>
+  <si>
+    <t>-11592.30</t>
+  </si>
+  <si>
+    <t>-5556.23</t>
+  </si>
+  <si>
+    <t>-14645.55</t>
   </si>
 </sst>
 </file>
@@ -614,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,322 +684,354 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>2025</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
